--- a/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Management_Executive_Summary.xlsx
@@ -89,10 +89,13 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Floating Rate Construction</t>
-  </si>
-  <si>
-    <t>Fixed Rate Construction</t>
+    <t>FRM20</t>
+  </si>
+  <si>
+    <t>Floating Rate 2nd closed e</t>
+  </si>
+  <si>
+    <t>Fixed Rate 2nd closed end</t>
   </si>
   <si>
     <t>Floating Rate Multi Family</t>
@@ -101,10 +104,7 @@
     <t>Fixed Rate Multi Family 30</t>
   </si>
   <si>
-    <t>Floating Rate 2nd closed e</t>
-  </si>
-  <si>
-    <t>FRM10</t>
+    <t>Fixed Rate Multi Family Ba</t>
   </si>
   <si>
     <t>Series</t>
@@ -140,7 +140,7 @@
     <t>As of date:Jun,2021</t>
   </si>
   <si>
-    <t>Printed on:2021-08-09 16:49</t>
+    <t>Printed on:2021-08-09 18:24</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -1989,7 +1989,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>Floating Rate Construction</c:v>
+            <c:v>FRM20</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2017,7 +2017,7 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
-            <c:v>Floating Rate Construction</c:v>
+            <c:v>Floating Rate 2nd closed e</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2045,7 +2045,7 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
-            <c:v>Fixed Rate Construction</c:v>
+            <c:v>Floating Rate 2nd closed e</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2073,7 +2073,7 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>Floating Rate Construction</c:v>
+            <c:v>Floating Rate 2nd closed e</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2101,7 +2101,7 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
+            <c:v>Fixed Rate 2nd closed end</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2185,7 +2185,7 @@
           <c:idx val="18"/>
           <c:order val="18"/>
           <c:tx>
-            <c:v>Fixed Rate Multi Family 30</c:v>
+            <c:v>Floating Rate Multi Family</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2213,7 +2213,7 @@
           <c:idx val="19"/>
           <c:order val="19"/>
           <c:tx>
-            <c:v>Floating Rate 2nd closed e</c:v>
+            <c:v>Fixed Rate Multi Family 30</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2241,7 +2241,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>FRM10</c:v>
+            <c:v>Fixed Rate Multi Family Ba</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -11471,10 +11471,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>1.3479924782</v>
+        <v>0.7163209198</v>
       </c>
       <c r="C2" s="2">
-        <v>3.52390873</v>
+        <v>1.27695468</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -11482,13 +11482,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>1.350202756</v>
+        <v>1.730901244</v>
       </c>
       <c r="C3" s="2">
-        <v>3.4127220799999995</v>
+        <v>2.74092246</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -11499,10 +11499,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>1.3485362461</v>
+        <v>1.7296282787</v>
       </c>
       <c r="C4" s="2">
-        <v>3.49652669</v>
+        <v>2.80588936</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -11510,13 +11510,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>1.3490805753</v>
+        <v>1.730648341</v>
       </c>
       <c r="C5" s="1">
-        <v>3.46913479</v>
+        <v>2.87993173</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -11527,10 +11527,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>4.4351474928</v>
+        <v>1.7456766508</v>
       </c>
       <c r="C6" s="1">
-        <v>2.6742447400000002</v>
+        <v>2.1853501300000002</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -11538,13 +11538,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>4.4311361226</v>
+        <v>4.4351474928</v>
       </c>
       <c r="C7" s="1">
-        <v>2.71857909</v>
+        <v>2.6742447400000002</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -11552,13 +11552,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>4.4303493691</v>
+        <v>4.4311361226</v>
       </c>
       <c r="C8" s="1">
-        <v>2.74121623</v>
+        <v>2.71857909</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -11569,10 +11569,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>7.3718998258</v>
+        <v>4.4303493691</v>
       </c>
       <c r="C9" s="1">
-        <v>1.18379072</v>
+        <v>2.74121623</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -11583,10 +11583,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>1.730901244</v>
+        <v>7.3718998258</v>
       </c>
       <c r="C10" s="1">
-        <v>2.74092246</v>
+        <v>1.18379072</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -11597,10 +11597,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1971863606</v>
+        <v>4.0496977845</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1916005299999999</v>
+        <v>1.5048373</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>

--- a/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Management_Executive_Summary.xlsx
@@ -89,24 +89,24 @@
     <t>Size</t>
   </si>
   <si>
-    <t>FRM20</t>
-  </si>
-  <si>
-    <t>Floating Rate 2nd closed e</t>
-  </si>
-  <si>
-    <t>Fixed Rate 2nd closed end</t>
+    <t>Floating Rate Commercial L</t>
+  </si>
+  <si>
+    <t>Fixed Rate Commercial Loan</t>
+  </si>
+  <si>
+    <t>Misc NonIntBearing Loan</t>
+  </si>
+  <si>
+    <t>Floating Rate Construction</t>
+  </si>
+  <si>
+    <t>Fixed Rate Construction</t>
   </si>
   <si>
     <t>Floating Rate Multi Family</t>
   </si>
   <si>
-    <t>Fixed Rate Multi Family 30</t>
-  </si>
-  <si>
-    <t>Fixed Rate Multi Family Ba</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -140,7 +140,7 @@
     <t>As of date:Jun,2021</t>
   </si>
   <si>
-    <t>Printed on:2021-08-09 18:24</t>
+    <t>Printed on:2021-09-06 14:46</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -1989,7 +1989,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>FRM20</c:v>
+            <c:v>Floating Rate Commercial L</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2017,7 +2017,7 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
-            <c:v>Floating Rate 2nd closed e</c:v>
+            <c:v>Fixed Rate Commercial Loan</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2045,7 +2045,7 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
-            <c:v>Floating Rate 2nd closed e</c:v>
+            <c:v>Misc NonIntBearing Loan</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2073,7 +2073,7 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>Floating Rate 2nd closed e</c:v>
+            <c:v>Floating Rate Construction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2101,7 +2101,7 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:tx>
-            <c:v>Fixed Rate 2nd closed end</c:v>
+            <c:v>Floating Rate Construction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2129,7 +2129,7 @@
           <c:idx val="16"/>
           <c:order val="16"/>
           <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
+            <c:v>Floating Rate Construction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2157,7 +2157,7 @@
           <c:idx val="17"/>
           <c:order val="17"/>
           <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
+            <c:v>Fixed Rate Construction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2185,7 +2185,7 @@
           <c:idx val="18"/>
           <c:order val="18"/>
           <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
+            <c:v>Floating Rate Construction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2213,7 +2213,7 @@
           <c:idx val="19"/>
           <c:order val="19"/>
           <c:tx>
-            <c:v>Fixed Rate Multi Family 30</c:v>
+            <c:v>Floating Rate Multi Family</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2241,7 +2241,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>Fixed Rate Multi Family Ba</c:v>
+            <c:v>Floating Rate Multi Family</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2498,12 +2498,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$C$2:$C$9</c:f>
+              <c:f>'Sheet4'!$C$2:$C$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2521,12 +2521,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$D$2:$D$9</c:f>
+              <c:f>'Sheet4'!$D$2:$D$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2544,12 +2544,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$E$2:$E$9</c:f>
+              <c:f>'Sheet4'!$E$2:$E$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2567,12 +2567,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$F$2:$F$9</c:f>
+              <c:f>'Sheet4'!$F$2:$F$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2590,12 +2590,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$G$2:$G$9</c:f>
+              <c:f>'Sheet4'!$G$2:$G$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2613,12 +2613,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$H$2:$H$9</c:f>
+              <c:f>'Sheet4'!$H$2:$H$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2636,12 +2636,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$I$2:$I$9</c:f>
+              <c:f>'Sheet4'!$I$2:$I$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2659,12 +2659,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$J$2:$J$9</c:f>
+              <c:f>'Sheet4'!$J$2:$J$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2682,12 +2682,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$K$2:$K$9</c:f>
+              <c:f>'Sheet4'!$K$2:$K$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2705,12 +2705,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$L$2:$L$9</c:f>
+              <c:f>'Sheet4'!$L$2:$L$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2728,12 +2728,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$M$2:$M$9</c:f>
+              <c:f>'Sheet4'!$M$2:$M$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2751,12 +2751,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$N$2:$N$9</c:f>
+              <c:f>'Sheet4'!$N$2:$N$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2774,12 +2774,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$O$2:$O$9</c:f>
+              <c:f>'Sheet4'!$O$2:$O$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2797,12 +2797,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$P$2:$P$9</c:f>
+              <c:f>'Sheet4'!$P$2:$P$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2820,12 +2820,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$Q$2:$Q$9</c:f>
+              <c:f>'Sheet4'!$Q$2:$Q$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2861,12 +2861,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$B$2:$B$9</c:f>
+              <c:f>'Sheet4'!$B$2:$B$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3039,12 +3039,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet5'!$A$2:$A$8</c:f>
+              <c:f>'Sheet5'!$A$2:$A$7</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet5'!$B$2:$B$8</c:f>
+              <c:f>'Sheet5'!$B$2:$B$7</c:f>
             </c:numRef>
           </c:val>
           <c:spPr>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="67">
-        <v>0.0237903988465669</v>
+        <v>0.0237895573112062</v>
       </c>
       <c r="O25" s="47"/>
       <c r="P25" s="67">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="67">
-        <v>0.00377281340571714</v>
+        <v>0.00377366818201881</v>
       </c>
       <c r="O26" s="47"/>
       <c r="P26" s="67">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="67">
-        <v>0.00787992673345986</v>
+        <v>0.00787835988877609</v>
       </c>
       <c r="O27" s="47"/>
       <c r="P27" s="67">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="67">
-        <v>0.00129311618190111</v>
+        <v>0.00129466978564389</v>
       </c>
       <c r="O28" s="47"/>
       <c r="P28" s="67">
@@ -11471,10 +11471,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>0.7163209198</v>
+        <v>1.5218295444</v>
       </c>
       <c r="C2" s="2">
-        <v>1.27695468</v>
+        <v>3.0966318</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -11485,10 +11485,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="2">
-        <v>1.730901244</v>
+        <v>1.5421310113</v>
       </c>
       <c r="C3" s="2">
-        <v>2.74092246</v>
+        <v>2.5422098699999998</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -11496,13 +11496,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>1.7296282787</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2.80588936</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -11510,13 +11510,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>1.730648341</v>
+        <v>1.351860713</v>
       </c>
       <c r="C5" s="1">
-        <v>2.87993173</v>
+        <v>3.3295182</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -11524,13 +11524,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7456766508</v>
+        <v>1.3479924782</v>
       </c>
       <c r="C6" s="1">
-        <v>2.1853501300000002</v>
+        <v>3.52390873</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -11541,10 +11541,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>4.4351474928</v>
+        <v>1.350202756</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6742447400000002</v>
+        <v>3.4127220799999995</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -11552,13 +11552,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>4.4311361226</v>
+        <v>1.3485362461</v>
       </c>
       <c r="C8" s="1">
-        <v>2.71857909</v>
+        <v>3.49652669</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -11569,10 +11569,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>4.4303493691</v>
+        <v>1.3490805753</v>
       </c>
       <c r="C9" s="1">
-        <v>2.74121623</v>
+        <v>3.46913479</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -11580,13 +11580,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>7.3718998258</v>
+        <v>4.4351474928</v>
       </c>
       <c r="C10" s="1">
-        <v>1.18379072</v>
+        <v>2.6742447400000002</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -11597,10 +11597,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>4.0496977845</v>
+        <v>4.4311361226</v>
       </c>
       <c r="C11" s="1">
-        <v>1.5048373</v>
+        <v>2.71857909</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -11686,25 +11686,25 @@
     </row>
     <row r="2" s="3" customFormat="1">
       <c r="A2" s="3">
-        <v>201909</v>
+        <v>201912</v>
       </c>
       <c r="B2" s="3">
-        <v>26078</v>
+        <v>90087</v>
       </c>
       <c r="C2" s="3">
-        <v>163</v>
+        <v>3618</v>
       </c>
       <c r="D2" s="3">
-        <v>11162</v>
+        <v>53445</v>
       </c>
       <c r="E2" s="3">
-        <v>2630</v>
+        <v>15502</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>66</v>
+        <v>2663</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -11716,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>7905</v>
+        <v>6791</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -11725,13 +11725,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>2749</v>
+        <v>4474</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <v>1403</v>
+        <v>3594</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="3" s="3" customFormat="1">
       <c r="A3" s="3">
-        <v>201912</v>
+        <v>202003</v>
       </c>
       <c r="B3" s="3">
         <v>90087</v>
@@ -11792,25 +11792,25 @@
     </row>
     <row r="4" s="3" customFormat="1">
       <c r="A4" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B4" s="3">
-        <v>90087</v>
+        <v>24556</v>
       </c>
       <c r="C4" s="3">
-        <v>3618</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3">
-        <v>53445</v>
+        <v>10995</v>
       </c>
       <c r="E4" s="3">
-        <v>15502</v>
+        <v>2571</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>2663</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>6791</v>
+        <v>6978</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -11831,39 +11831,39 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>4474</v>
+        <v>2556</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <v>0</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1">
       <c r="A5" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B5" s="3">
-        <v>24556</v>
+        <v>100044</v>
       </c>
       <c r="C5" s="3">
-        <v>233</v>
+        <v>4445</v>
       </c>
       <c r="D5" s="3">
-        <v>10995</v>
+        <v>57616</v>
       </c>
       <c r="E5" s="3">
-        <v>2571</v>
+        <v>16254</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>21</v>
+        <v>2759</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>6978</v>
+        <v>10505</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>2556</v>
+        <v>4923</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -11893,30 +11893,30 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>1202</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
       <c r="A6" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B6" s="3">
-        <v>100044</v>
+        <v>100125</v>
       </c>
       <c r="C6" s="3">
-        <v>4445</v>
+        <v>4470</v>
       </c>
       <c r="D6" s="3">
-        <v>57616</v>
+        <v>57801</v>
       </c>
       <c r="E6" s="3">
-        <v>16254</v>
+        <v>17045</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2759</v>
+        <v>2641</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>10505</v>
+        <v>9525</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>4923</v>
+        <v>5172</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -11946,30 +11946,30 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>3542</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
       <c r="A7" s="3">
-        <v>202012</v>
+        <v>202103</v>
       </c>
       <c r="B7" s="3">
-        <v>100125</v>
+        <v>99200</v>
       </c>
       <c r="C7" s="3">
-        <v>4470</v>
+        <v>3871</v>
       </c>
       <c r="D7" s="3">
-        <v>57801</v>
+        <v>58061</v>
       </c>
       <c r="E7" s="3">
-        <v>17045</v>
+        <v>17175</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>2641</v>
+        <v>2311</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>9525</v>
+        <v>9291</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>5172</v>
+        <v>5092</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -11999,30 +11999,30 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>3471</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
       <c r="A8" s="3">
-        <v>202103</v>
+        <v>202106</v>
       </c>
       <c r="B8" s="3">
-        <v>99200</v>
+        <v>99812.9999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>3871</v>
+        <v>4255</v>
       </c>
       <c r="D8" s="3">
-        <v>58061</v>
+        <v>59590.9998</v>
       </c>
       <c r="E8" s="3">
-        <v>17175</v>
+        <v>17212</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>9291</v>
+        <v>7694</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>5092</v>
+        <v>5310</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -12052,61 +12052,14 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <v>3399</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3">
-        <v>202106</v>
-      </c>
-      <c r="B9" s="3">
-        <v>99812.9999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4255</v>
-      </c>
-      <c r="D9" s="3">
-        <v>59590.9998</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17212</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2317</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7694</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5310</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3434</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1">
       <c r="N10" s="4"/>
@@ -12168,58 +12121,58 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>201912</v>
+        <v>202003</v>
       </c>
       <c r="B2" s="3">
-        <v>64009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>-65531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B4" s="3">
-        <v>-65531</v>
+        <v>75488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B5" s="3">
-        <v>75488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>202012</v>
+        <v>202103</v>
       </c>
       <c r="B6" s="3">
-        <v>81</v>
+        <v>-925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>202103</v>
+        <v>202106</v>
       </c>
       <c r="B7" s="3">
-        <v>-925</v>
+        <v>612.99999999989609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>202106</v>
+        <v>201712</v>
       </c>
       <c r="B8" s="3">
-        <v>612.99999999989609</v>
+        <v>-41.3523899999987</v>
       </c>
     </row>
     <row r="9">
